--- a/Datasets/001-Sales-Data/001-Store-Information.xlsx
+++ b/Datasets/001-Sales-Data/001-Store-Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMBA-IITPatna\Desktop\MB-511\IIT-Patna-EMBA-MB511\Datasets\001-Sales-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA101ADC-35E0-4753-8ECD-8FC5A042B689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790CFB2-F92D-45A7-A2C0-3F12C9CE50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="205">
   <si>
     <t>Store-ID</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Store-Opening</t>
+  </si>
+  <si>
+    <t>Cluster</t>
   </si>
 </sst>
 </file>
@@ -970,9 +973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1000,6 +1001,9 @@
       <c r="E1" t="s">
         <v>203</v>
       </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="I1" s="1"/>
     </row>
@@ -1019,6 +1023,9 @@
       <c r="E2" s="2">
         <v>29717</v>
       </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1036,6 +1043,9 @@
       <c r="E3" s="2">
         <v>30195</v>
       </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1053,6 +1063,9 @@
       <c r="E4" s="2">
         <v>30316</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1070,6 +1083,9 @@
       <c r="E5" s="2">
         <v>30916</v>
       </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1087,6 +1103,9 @@
       <c r="E6" s="2">
         <v>31181</v>
       </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1104,6 +1123,9 @@
       <c r="E7" s="2">
         <v>31376</v>
       </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1121,6 +1143,9 @@
       <c r="E8" s="2">
         <v>31936</v>
       </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1138,6 +1163,9 @@
       <c r="E9" s="2">
         <v>32299</v>
       </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1155,6 +1183,9 @@
       <c r="E10" s="2">
         <v>32466</v>
       </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1172,6 +1203,9 @@
       <c r="E11" s="2">
         <v>32489</v>
       </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1189,6 +1223,9 @@
       <c r="E12" s="2">
         <v>33003</v>
       </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1206,6 +1243,9 @@
       <c r="E13" s="2">
         <v>33095</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1223,6 +1263,9 @@
       <c r="E14" s="2">
         <v>33103</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1240,6 +1283,9 @@
       <c r="E15" s="2">
         <v>33441</v>
       </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1257,8 +1303,11 @@
       <c r="E16" s="2">
         <v>33806</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>123</v>
       </c>
@@ -1274,8 +1323,11 @@
       <c r="E17" s="2">
         <v>34263</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>142</v>
       </c>
@@ -1291,8 +1343,11 @@
       <c r="E18" s="2">
         <v>34795</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>137</v>
       </c>
@@ -1308,8 +1363,11 @@
       <c r="E19" s="2">
         <v>35854</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -1325,8 +1383,11 @@
       <c r="E20" s="2">
         <v>35888</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>115</v>
       </c>
@@ -1342,8 +1403,11 @@
       <c r="E21" s="2">
         <v>35899</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -1359,8 +1423,11 @@
       <c r="E22" s="2">
         <v>35970</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>148</v>
       </c>
@@ -1376,8 +1443,11 @@
       <c r="E23" s="2">
         <v>36177</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>141</v>
       </c>
@@ -1393,8 +1463,11 @@
       <c r="E24" s="2">
         <v>36250</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
@@ -1410,8 +1483,11 @@
       <c r="E25" s="2">
         <v>36632</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>139</v>
       </c>
@@ -1427,8 +1503,11 @@
       <c r="E26" s="2">
         <v>36720</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>140</v>
       </c>
@@ -1444,8 +1523,11 @@
       <c r="E27" s="2">
         <v>36902</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>130</v>
       </c>
@@ -1461,8 +1543,11 @@
       <c r="E28" s="2">
         <v>37333</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -1478,8 +1563,11 @@
       <c r="E29" s="2">
         <v>37685</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1495,8 +1583,11 @@
       <c r="E30" s="2">
         <v>37712</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -1512,8 +1603,11 @@
       <c r="E31" s="2">
         <v>37731</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -1529,8 +1623,11 @@
       <c r="E32" s="2">
         <v>37867</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -1546,8 +1643,11 @@
       <c r="E33" s="2">
         <v>38333</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -1563,8 +1663,11 @@
       <c r="E34" s="2">
         <v>38463</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>125</v>
       </c>
@@ -1580,8 +1683,11 @@
       <c r="E35" s="2">
         <v>38585</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -1597,8 +1703,11 @@
       <c r="E36" s="2">
         <v>38816</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -1614,8 +1723,11 @@
       <c r="E37" s="2">
         <v>38949</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1631,8 +1743,11 @@
       <c r="E38" s="2">
         <v>38968</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -1648,8 +1763,11 @@
       <c r="E39" s="2">
         <v>39609</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -1665,8 +1783,11 @@
       <c r="E40" s="2">
         <v>39912</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -1682,8 +1803,11 @@
       <c r="E41" s="2">
         <v>39919</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -1699,8 +1823,11 @@
       <c r="E42" s="2">
         <v>40178</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -1716,8 +1843,11 @@
       <c r="E43" s="2">
         <v>40230</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>143</v>
       </c>
@@ -1733,8 +1863,11 @@
       <c r="E44" s="2">
         <v>41400</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -1750,8 +1883,11 @@
       <c r="E45" s="2">
         <v>42345</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>134</v>
       </c>
@@ -1767,8 +1903,11 @@
       <c r="E46" s="2">
         <v>42441</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -1784,8 +1923,11 @@
       <c r="E47" s="2">
         <v>42548</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -1801,8 +1943,11 @@
       <c r="E48" s="2">
         <v>42945</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -1818,8 +1963,11 @@
       <c r="E49" s="2">
         <v>43147</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -1835,8 +1983,11 @@
       <c r="E50" s="2">
         <v>43633</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -1851,6 +2002,9 @@
       </c>
       <c r="E51" s="2">
         <v>43694</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/001-Sales-Data/001-Store-Information.xlsx
+++ b/Datasets/001-Sales-Data/001-Store-Information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMBA-IITPatna\Desktop\MB-511\IIT-Patna-EMBA-MB511\Datasets\001-Sales-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790CFB2-F92D-45A7-A2C0-3F12C9CE50C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD33B2E9-E527-4218-9597-6E96C3D199DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,59 +1009,59 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2">
-        <v>29717</v>
+        <v>30316</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2">
-        <v>30195</v>
+        <v>33095</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E4" s="2">
-        <v>30316</v>
+        <v>33103</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1069,499 +1069,499 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E5" s="2">
-        <v>30916</v>
+        <v>37867</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="E6" s="2">
-        <v>31181</v>
+        <v>39919</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2">
-        <v>31376</v>
+        <v>41400</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E8" s="2">
-        <v>31936</v>
+        <v>42345</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E9" s="2">
-        <v>32299</v>
+        <v>35970</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2">
-        <v>32466</v>
+        <v>36720</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E11" s="2">
-        <v>32489</v>
+        <v>38949</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="E12" s="2">
-        <v>33003</v>
+        <v>39912</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E13" s="2">
-        <v>33095</v>
+        <v>43633</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E14" s="2">
-        <v>33103</v>
+        <v>32489</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2">
-        <v>33441</v>
+        <v>36250</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D16" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2">
-        <v>33806</v>
+        <v>36632</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="E17" s="2">
-        <v>34263</v>
+        <v>36902</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E18" s="2">
-        <v>34795</v>
+        <v>37333</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="E19" s="2">
-        <v>35854</v>
+        <v>38585</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="E20" s="2">
-        <v>35888</v>
+        <v>43694</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="E21" s="2">
-        <v>35899</v>
+        <v>33003</v>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="E22" s="2">
-        <v>35970</v>
+        <v>35888</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2">
-        <v>36177</v>
+        <v>38463</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2">
-        <v>36250</v>
+        <v>40178</v>
       </c>
       <c r="F24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="E25" s="2">
-        <v>36632</v>
+        <v>40230</v>
       </c>
       <c r="F25">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="E26" s="2">
-        <v>36720</v>
+        <v>42548</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E27" s="2">
-        <v>36902</v>
+        <v>42945</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E28" s="2">
-        <v>37333</v>
+        <v>30916</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="E29" s="2">
-        <v>37685</v>
+        <v>31376</v>
       </c>
       <c r="F29">
         <v>5</v>
@@ -1569,19 +1569,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2">
-        <v>37712</v>
+        <v>31936</v>
       </c>
       <c r="F30">
         <v>5</v>
@@ -1589,59 +1589,59 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="E31" s="2">
-        <v>37731</v>
+        <v>33441</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="E32" s="2">
-        <v>37867</v>
+        <v>34263</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E33" s="2">
-        <v>38333</v>
+        <v>35854</v>
       </c>
       <c r="F33">
         <v>5</v>
@@ -1649,259 +1649,259 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="E34" s="2">
-        <v>38463</v>
+        <v>36177</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="E35" s="2">
-        <v>38585</v>
+        <v>37685</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="E36" s="2">
-        <v>38816</v>
+        <v>37712</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E37" s="2">
-        <v>38949</v>
+        <v>38333</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E38" s="2">
-        <v>38968</v>
+        <v>39609</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E39" s="2">
-        <v>39609</v>
+        <v>29717</v>
       </c>
       <c r="F39">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="E40" s="2">
-        <v>39912</v>
+        <v>31181</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E41" s="2">
-        <v>39919</v>
+        <v>32466</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E42" s="2">
-        <v>40178</v>
+        <v>38816</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C43" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E43" s="2">
-        <v>40230</v>
+        <v>38968</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E44" s="2">
-        <v>41400</v>
+        <v>32299</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="E45" s="2">
-        <v>42345</v>
+        <v>33806</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="E46" s="2">
-        <v>42441</v>
+        <v>34795</v>
       </c>
       <c r="F46">
         <v>7</v>
@@ -1909,59 +1909,59 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E47" s="2">
-        <v>42548</v>
+        <v>37731</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2">
-        <v>42945</v>
+        <v>42441</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E49" s="2">
-        <v>43147</v>
+        <v>30195</v>
       </c>
       <c r="F49">
         <v>8</v>
@@ -1969,45 +1969,48 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C50" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E50" s="2">
-        <v>43633</v>
+        <v>35899</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E51" s="2">
-        <v>43694</v>
+        <v>43147</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="F2:F51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>